--- a/98 - Fil Rouge/Dictionnaire.xlsx
+++ b/98 - Fil Rouge/Dictionnaire.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>Rubrique</t>
   </si>
@@ -300,6 +300,30 @@
   </si>
   <si>
     <t>Ligne Livraison</t>
+  </si>
+  <si>
+    <t>DateLivraison</t>
+  </si>
+  <si>
+    <t>Date de la livraison</t>
+  </si>
+  <si>
+    <t>Quantité de produit livré</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Livraison</t>
+  </si>
+  <si>
+    <t>NumLivraison</t>
+  </si>
+  <si>
+    <t>Numéro de livraison</t>
+  </si>
+  <si>
+    <t>varchar</t>
   </si>
 </sst>
 </file>
@@ -325,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +410,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -418,60 +448,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:F61"/>
+  <dimension ref="D1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,268 +797,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1038,155 +1068,155 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1198,24 +1228,24 @@
       <c r="F51" s="15"/>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1225,58 +1255,94 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D55" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
+      <c r="D55" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="D57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+    </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="24" t="s">
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E63" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F63" s="13" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D62:F62"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D59:F59"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
